--- a/samples/graph-bulk-meetings/nodejs/template/MeetingTemplate.xlsx
+++ b/samples/graph-bulk-meetings/nodejs/template/MeetingTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-hrajandira\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Harikrishnan\TeamsSamples\January\samples\graph-bulk-meetings\nodejs\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412190F9-230B-49F0-A219-80010283CF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366BEA4E-50C5-4B2B-A604-EF8372E8A267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9F1F67BB-4AA7-4AFD-8625-35EC8C8E2AD5}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>meganb@m365x30487760.onmicrosoft.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Start DateTime</t>
   </si>
@@ -486,7 +483,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,90 +497,79 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{6AB04EF6-5F2D-4F30-BF3F-F1766609252B}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{CBF9C928-189F-451B-B41A-92468E2ED009}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{DD959F70-A002-463E-8583-E25C3B3136BD}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>